--- a/v014/progress.xlsx
+++ b/v014/progress.xlsx
@@ -764,7 +764,7 @@
                 <c:v>100</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>79</c:v>
+                <c:v>100</c:v>
               </c:pt>
               <c:pt idx="7">
                 <c:v>67</c:v>
@@ -813,7 +813,7 @@
                 <c:v>100</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>55</c:v>
+                <c:v>70</c:v>
               </c:pt>
               <c:pt idx="7">
                 <c:v>36</c:v>
@@ -833,11 +833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100987648"/>
-        <c:axId val="100989184"/>
+        <c:axId val="112456448"/>
+        <c:axId val="112457984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100987648"/>
+        <c:axId val="112456448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100989184"/>
+        <c:crossAx val="112457984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -855,7 +855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100989184"/>
+        <c:axId val="112457984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +885,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100987648"/>
+        <c:crossAx val="112456448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1016,7 +1016,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -1130,7 +1130,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>32.5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1148,11 +1148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103486592"/>
-        <c:axId val="103488128"/>
+        <c:axId val="113579136"/>
+        <c:axId val="113580672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103486592"/>
+        <c:axId val="113579136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103488128"/>
+        <c:crossAx val="113580672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103488128"/>
+        <c:axId val="113580672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103486592"/>
+        <c:crossAx val="113579136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,7 +1313,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.571428571428569</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.666666666666657</c:v>
@@ -1365,7 +1365,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.000000000000007</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40</c:v>
@@ -1386,11 +1386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103504896"/>
-        <c:axId val="103527168"/>
+        <c:axId val="113597440"/>
+        <c:axId val="113619712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103504896"/>
+        <c:axId val="113597440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103527168"/>
+        <c:crossAx val="113619712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103527168"/>
+        <c:axId val="113619712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1438,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103504896"/>
+        <c:crossAx val="113597440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,19 +2078,19 @@
         <v>10</v>
       </c>
       <c r="D8" s="11">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>55.000000000000007</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>78.571428571428569</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>23.571428571428562</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,19 +2167,19 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5">
         <f>D12/C12*100</f>
-        <v>57.017543859649123</v>
+        <v>59.649122807017541</v>
       </c>
       <c r="G12" s="5">
         <f>D12/B12*100</f>
-        <v>77.38095238095238</v>
+        <v>80.952380952380949</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>20.363408521303256</v>
+        <v>21.303258145363408</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/v014/progress.xlsx
+++ b/v014/progress.xlsx
@@ -82,18 +82,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80FE86"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -101,6 +89,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,13 +151,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +764,7 @@
                 <c:v>100</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>100</c:v>
+                <c:v>67</c:v>
               </c:pt>
               <c:pt idx="7">
                 <c:v>67</c:v>
@@ -813,7 +813,7 @@
                 <c:v>100</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>70</c:v>
+                <c:v>60</c:v>
               </c:pt>
               <c:pt idx="7">
                 <c:v>36</c:v>
@@ -833,11 +833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112456448"/>
-        <c:axId val="112457984"/>
+        <c:axId val="103084416"/>
+        <c:axId val="103085952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112456448"/>
+        <c:axId val="103084416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112457984"/>
+        <c:crossAx val="103085952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -855,7 +855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112457984"/>
+        <c:axId val="103085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +885,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112456448"/>
+        <c:crossAx val="103084416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1016,7 +1016,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -1130,7 +1130,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1148,11 +1148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113579136"/>
-        <c:axId val="113580672"/>
+        <c:axId val="104141568"/>
+        <c:axId val="104143104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113579136"/>
+        <c:axId val="104141568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113580672"/>
+        <c:crossAx val="104143104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113580672"/>
+        <c:axId val="104143104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113579136"/>
+        <c:crossAx val="104141568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,7 +1313,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>88.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.666666666666657</c:v>
@@ -1365,7 +1365,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40</c:v>
@@ -1386,11 +1386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113597440"/>
-        <c:axId val="113619712"/>
+        <c:axId val="104159872"/>
+        <c:axId val="104186240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113597440"/>
+        <c:axId val="104159872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113619712"/>
+        <c:crossAx val="104186240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113619712"/>
+        <c:axId val="104186240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1438,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113597440"/>
+        <c:crossAx val="104159872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -1964,7 +1964,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="4">
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>4.3</v>
       </c>
       <c r="B6" s="4">
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="B7" s="4">
@@ -2068,33 +2068,33 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
-        <v>7</v>
+      <c r="D8" s="9">
+        <v>8</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>8.8888888888888857</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="4">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B12" s="4">
         <f>SUM(B2:B10)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4">
         <f>SUM(C2:C10)</f>
@@ -2167,23 +2167,23 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5">
         <f>D12/C12*100</f>
-        <v>59.649122807017541</v>
+        <v>61.403508771929829</v>
       </c>
       <c r="G12" s="5">
         <f>D12/B12*100</f>
-        <v>80.952380952380949</v>
+        <v>79.545454545454547</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>21.303258145363408</v>
+        <v>18.141945773524718</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>50</v>
       </c>
     </row>
